--- a/仕様書/Masterの仕様書/UI.xlsx
+++ b/仕様書/Masterの仕様書/UI.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
   <si>
     <t>UIの仕様</t>
     <rPh sb="3" eb="5">
@@ -230,6 +230,32 @@
     </rPh>
     <rPh sb="2" eb="4">
       <t>テンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新仕様</t>
+    <rPh sb="0" eb="3">
+      <t>シンシヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>赤いラインは特売品の出る時間</t>
+    <rPh sb="0" eb="1">
+      <t>アカ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>トクバイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ヒン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジカン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1539,8 +1565,8 @@
       <xdr:rowOff>25773</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>627529</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>403411</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>108697</xdr:rowOff>
     </xdr:to>
@@ -1558,13 +1584,13 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2714626" y="2614332"/>
-          <a:ext cx="2014256" cy="318247"/>
+          <a:ext cx="3157256" cy="318247"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="lt1"/>
+          <a:srgbClr val="FF0000"/>
         </a:solidFill>
         <a:ln w="9525" cmpd="sng">
           <a:solidFill>
@@ -1593,9 +1619,438 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>今何体特売品を持っているか</a:t>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>・今何体特売品を持っているか</a:t>
           </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>224118</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>515471</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>182098</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="正方形/長方形 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F72A4033-2CC5-4A68-BD9A-13C5A11CEDD9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1776693" y="694765"/>
+          <a:ext cx="105896" cy="428627"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>611281</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>177053</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>224118</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>123264</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="正方形/長方形 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA2B0450-4ECF-4C40-A410-CC81586E18C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4029075" y="647700"/>
+          <a:ext cx="296396" cy="181535"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>601987</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>186018</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>412858</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>5201</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="図 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1013E87E-136F-4F12-A8C1-79F15ED35D04}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1285546" y="656665"/>
+          <a:ext cx="494430" cy="525154"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>68917</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>219635</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>174813</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>177615</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="正方形/長方形 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DBA547D-1D9C-4B5F-8F57-2AE6784B6DA6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2119593" y="690282"/>
+          <a:ext cx="105896" cy="428627"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>344581</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>13448</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>450477</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>206752</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="正方形/長方形 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4843363F-100F-4BB7-B9A7-63399EE74428}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3078816" y="719419"/>
+          <a:ext cx="105896" cy="428627"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>501463</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>2239</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>607359</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>195543</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="正方形/長方形 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56A4B83B-BDD8-4922-96D2-654724A9237D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1868581" y="4238063"/>
+          <a:ext cx="105896" cy="428627"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>219640</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>17929</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>6729</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>67235</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="右矢印 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{004B869E-DB1C-41A3-8656-CD5667F8CCF8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="1562105" y="4513729"/>
+          <a:ext cx="519953" cy="470647"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1869,8 +2324,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1921,6 +2376,11 @@
         <v>6</v>
       </c>
     </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="H14" t="s">
+        <v>25</v>
+      </c>
+    </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>9</v>
@@ -1937,6 +2397,11 @@
     <row r="20" spans="1:8" x14ac:dyDescent="0.4">
       <c r="F20" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="D22" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.4">

--- a/仕様書/Masterの仕様書/UI.xlsx
+++ b/仕様書/Masterの仕様書/UI.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t>UIの仕様</t>
     <rPh sb="3" eb="5">
@@ -230,32 +230,6 @@
     </rPh>
     <rPh sb="2" eb="4">
       <t>テンスウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>新仕様</t>
-    <rPh sb="0" eb="3">
-      <t>シンシヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>赤いラインは特売品の出る時間</t>
-    <rPh sb="0" eb="1">
-      <t>アカ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>トクバイ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ヒン</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>デ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ジカン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1565,8 +1539,8 @@
       <xdr:rowOff>25773</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>403411</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>627529</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>108697</xdr:rowOff>
     </xdr:to>
@@ -1584,13 +1558,13 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2714626" y="2614332"/>
-          <a:ext cx="3157256" cy="318247"/>
+          <a:ext cx="2014256" cy="318247"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="FF0000"/>
+          <a:schemeClr val="lt1"/>
         </a:solidFill>
         <a:ln w="9525" cmpd="sng">
           <a:solidFill>
@@ -1619,438 +1593,9 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="95000"/>
-                  <a:lumOff val="5000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>・今何体特売品を持っているか</a:t>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>今何体特売品を持っているか</a:t>
           </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>224118</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>515471</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>182098</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="正方形/長方形 22">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F72A4033-2CC5-4A68-BD9A-13C5A11CEDD9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1776693" y="694765"/>
-          <a:ext cx="105896" cy="428627"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FF0000"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>611281</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>177053</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>224118</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>123264</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="正方形/長方形 23">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA2B0450-4ECF-4C40-A410-CC81586E18C9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4029075" y="647700"/>
-          <a:ext cx="296396" cy="181535"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>601987</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>186018</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>412858</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>5201</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="25" name="図 24">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1013E87E-136F-4F12-A8C1-79F15ED35D04}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="1285546" y="656665"/>
-          <a:ext cx="494430" cy="525154"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>68917</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>219635</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>174813</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>177615</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="正方形/長方形 25">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DBA547D-1D9C-4B5F-8F57-2AE6784B6DA6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2119593" y="690282"/>
-          <a:ext cx="105896" cy="428627"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FF0000"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>344581</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>13448</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>450477</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>206752</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="正方形/長方形 26">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4843363F-100F-4BB7-B9A7-63399EE74428}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3078816" y="719419"/>
-          <a:ext cx="105896" cy="428627"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FF0000"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>501463</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>2239</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>607359</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>195543</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="正方形/長方形 27">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56A4B83B-BDD8-4922-96D2-654724A9237D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1868581" y="4238063"/>
-          <a:ext cx="105896" cy="428627"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FF0000"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>219640</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>17929</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>6729</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>67235</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="右矢印 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{004B869E-DB1C-41A3-8656-CD5667F8CCF8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000">
-          <a:off x="1562105" y="4513729"/>
-          <a:ext cx="519953" cy="470647"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2324,8 +1869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2376,11 +1921,6 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="H14" t="s">
-        <v>25</v>
-      </c>
-    </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>9</v>
@@ -2397,11 +1937,6 @@
     <row r="20" spans="1:8" x14ac:dyDescent="0.4">
       <c r="F20" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="D22" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.4">
